--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E0CA46-5279-4D7A-8BF4-5AF27326C549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0781D87D-BDEC-45CD-A0B7-0EE983FE9A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,6 +418,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0781D87D-BDEC-45CD-A0B7-0EE983FE9A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8307A-6B9C-4E96-8CD3-5E458C416529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8307A-6B9C-4E96-8CD3-5E458C416529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6861F8-7B9D-4027-A38A-C7C7831F58E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -39,9 +39,6 @@
     <t>add one new info techno : retenu de mon experience</t>
   </si>
   <si>
-    <t>cv un point a corriger</t>
-  </si>
-  <si>
     <t>abdos</t>
   </si>
   <si>
@@ -61,6 +58,15 @@
   </si>
   <si>
     <t>parler de technos</t>
+  </si>
+  <si>
+    <t>muscu analiza</t>
+  </si>
+  <si>
+    <t>point pour le CV encours Expaceo CV</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
@@ -378,74 +384,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6861F8-7B9D-4027-A38A-C7C7831F58E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0D1327-AFBA-4D45-BA8C-E50E938DDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +439,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0D1327-AFBA-4D45-BA8C-E50E938DDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B51AB-59A0-47A5-A954-613AAB21A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>CV</t>
+  </si>
+  <si>
+    <t>scan documentow</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,9 +440,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -467,6 +475,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914B51AB-59A0-47A5-A954-613AAB21A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C3BC29-480C-4A48-92D4-F941F3B1D7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Louis</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{B3EFF948-4EDB-4B33-864B-DE93EFA7F871}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://www.examtopics.com/exams/microsoft/az-400/view/</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -70,13 +94,19 @@
   </si>
   <si>
     <t>scan documentow</t>
+  </si>
+  <si>
+    <t>16.02.2023</t>
+  </si>
+  <si>
+    <t>17.02.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,19 +114,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -105,8 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,103 +485,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C3BC29-480C-4A48-92D4-F941F3B1D7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AF1A19-DFCF-4D24-9AB2-C7010DC455B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>17.02.2023</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czy znalazl zegarek ? </t>
   </si>
 </sst>
 </file>
@@ -489,7 +496,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +545,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -549,6 +559,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -560,7 +573,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -611,4 +624,30 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AF1A19-DFCF-4D24-9AB2-C7010DC455B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0174B480-70D2-4AA2-879B-77426F31C576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,9 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -573,7 +571,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -597,7 +595,7 @@
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0174B480-70D2-4AA2-879B-77426F31C576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36700138-BA40-4E10-9CF2-97EE61767335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{36730BDF-60A8-4174-8B0B-D8E0593B298C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ok
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -73,9 +88,6 @@
     <t xml:space="preserve">ok </t>
   </si>
   <si>
-    <t xml:space="preserve">focus </t>
-  </si>
-  <si>
     <t>parler d'experience</t>
   </si>
   <si>
@@ -107,13 +119,19 @@
   </si>
   <si>
     <t xml:space="preserve">czy znalazl zegarek ? </t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">focus on :  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +145,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -495,7 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -504,10 +531,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,6 +557,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -538,6 +568,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -547,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -561,17 +594,17 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -589,8 +622,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -599,19 +632,22 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -636,12 +672,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36700138-BA40-4E10-9CF2-97EE61767335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E8D34E-473B-4BD6-8149-C066DCDB5C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -125,13 +125,114 @@
   </si>
   <si>
     <t xml:space="preserve">focus on :  </t>
+  </si>
+  <si>
+    <t>step by step MyApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete sync reference form service cote front puis back </t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toSyncControllerUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GetNumberOfTests`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +253,36 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,12 +363,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +739,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -643,7 +778,7 @@
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -651,6 +786,21 @@
       </c>
       <c r="H15" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E8D34E-473B-4BD6-8149-C066DCDB5C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04055FE9-524C-4990-8645-FEC7E7C9BB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="todo" sheetId="1" r:id="rId1"/>
+    <sheet name="pytania do kolegow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{36730BDF-60A8-4174-8B0B-D8E0593B298C}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{36730BDF-60A8-4174-8B0B-D8E0593B298C}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -115,12 +115,6 @@
     <t>17.02.2023</t>
   </si>
   <si>
-    <t>JB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">czy znalazl zegarek ? </t>
-  </si>
-  <si>
     <t>soap</t>
   </si>
   <si>
@@ -226,6 +220,30 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <t>19.02.2023</t>
+  </si>
+  <si>
+    <t>nie widze Pluralsight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facture pour le examtopics 35$ possible ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mon prochain exam c'est az-400 ? </t>
+  </si>
+  <si>
+    <t>nie umoiem zastosowac patch</t>
+  </si>
+  <si>
+    <t>nie umiem oddac object with child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czy powinienem separowac bundle I jak ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">three shaking , czy powinno to byc zrobione manualnie ? </t>
   </si>
 </sst>
 </file>
@@ -369,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -653,26 +671,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -680,40 +701,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="I4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -723,23 +741,26 @@
       <c r="H6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>12</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -747,8 +768,11 @@
       <c r="H9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -756,30 +780,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -787,20 +808,23 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -812,22 +836,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04055FE9-524C-4990-8645-FEC7E7C9BB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F06FE-55E2-47CF-9DB3-532289EF14FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -127,101 +127,6 @@
     <t xml:space="preserve">delete sync reference form service cote front puis back </t>
   </si>
   <si>
-    <r>
-      <t>const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4FC1FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>url</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>${this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF9CDCFE"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toSyncControllerUrl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>GetNumberOfTests`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>19.02.2023</t>
   </si>
   <si>
@@ -244,13 +149,19 @@
   </si>
   <si>
     <t xml:space="preserve">three shaking , czy powinno to byc zrobione manualnie ? </t>
+  </si>
+  <si>
+    <t>encypt value on save</t>
+  </si>
+  <si>
+    <t>deploy front zeby dzialal Myappmemo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,36 +182,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF569CD6"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4FC1FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -381,16 +262,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -760,7 +638,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -823,8 +701,13 @@
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
-        <v>20</v>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -846,37 +729,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F06FE-55E2-47CF-9DB3-532289EF14FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211BD50E-DD8C-4C8F-BAFE-E9CA2B2E5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +183,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +202,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -259,18 +271,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,7 +567,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +679,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -673,12 +691,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>9</v>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211BD50E-DD8C-4C8F-BAFE-E9CA2B2E5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5EDA53-9671-445A-BEE8-52ED2602920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>nie umoiem zastosowac patch</t>
   </si>
   <si>
-    <t>nie umiem oddac object with child</t>
-  </si>
-  <si>
     <t xml:space="preserve">czy powinienem separowac bundle I jak ? </t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>deploy front zeby dzialal Myappmemo</t>
+  </si>
+  <si>
+    <t>//return CreatedAtAction(nameof(GetTaskById), new { id = newTask.Id }, newTask);</t>
   </si>
 </sst>
 </file>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -724,11 +724,16 @@
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -743,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,19 +774,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5EDA53-9671-445A-BEE8-52ED2602920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F4530B-B328-47EB-90F1-3905BFEF3A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>19.02.2023</t>
   </si>
   <si>
-    <t>nie widze Pluralsight</t>
-  </si>
-  <si>
     <t xml:space="preserve">facture pour le examtopics 35$ possible ? </t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>//return CreatedAtAction(nameof(GetTaskById), new { id = newTask.Id }, newTask);</t>
+  </si>
+  <si>
+    <t>1st</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,29 +712,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -746,42 +749,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F4530B-B328-47EB-90F1-3905BFEF3A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06079BD7-5918-416D-B4C8-E89343EA8D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -130,12 +130,6 @@
     <t>19.02.2023</t>
   </si>
   <si>
-    <t xml:space="preserve">facture pour le examtopics 35$ possible ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mon prochain exam c'est az-400 ? </t>
-  </si>
-  <si>
     <t>nie umoiem zastosowac patch</t>
   </si>
   <si>
@@ -148,13 +142,16 @@
     <t>encypt value on save</t>
   </si>
   <si>
-    <t>deploy front zeby dzialal Myappmemo</t>
-  </si>
-  <si>
     <t>//return CreatedAtAction(nameof(GetTaskById), new { id = newTask.Id }, newTask);</t>
   </si>
   <si>
     <t>1st</t>
+  </si>
+  <si>
+    <t>20.02.2023</t>
+  </si>
+  <si>
+    <t>encours</t>
   </si>
 </sst>
 </file>
@@ -564,20 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="9" max="9" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -585,8 +582,11 @@
       <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -624,7 +624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -646,14 +646,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -664,8 +664,11 @@
       <c r="I9" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -673,15 +676,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -689,17 +689,20 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -711,79 +714,75 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A5:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06079BD7-5918-416D-B4C8-E89343EA8D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E199CEF5-EB03-4F9D-83C7-5D7698C88ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,14 +65,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
   <si>
-    <t>add 1 question az-400</t>
-  </si>
-  <si>
     <t>netoyage images</t>
   </si>
   <si>
@@ -152,6 +149,39 @@
   </si>
   <si>
     <t>encours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new repository for my app, branch develop, </t>
+  </si>
+  <si>
+    <t>cel dlugotrwalowy</t>
+  </si>
+  <si>
+    <t>przyspieszyc wprowadzanie</t>
+  </si>
+  <si>
+    <t>przyspieszyc nauke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suwak limit do 10 pytan </t>
+  </si>
+  <si>
+    <t>priorité</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>add 50 question az-400</t>
   </si>
 </sst>
 </file>
@@ -561,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,16 +604,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -591,15 +624,21 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -607,40 +646,46 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -648,7 +693,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -656,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -670,21 +715,26 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
         <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -694,9 +744,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="6"/>
     </row>
@@ -704,9 +756,11 @@
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -720,7 +774,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,25 +782,50 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
+      <c r="C21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -768,17 +847,17 @@
   <sheetData>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F4530B-B328-47EB-90F1-3905BFEF3A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C3ECE7-B795-49D6-ACF7-61B38B399B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -121,9 +121,6 @@
     <t xml:space="preserve">focus on :  </t>
   </si>
   <si>
-    <t>step by step MyApp</t>
-  </si>
-  <si>
     <t xml:space="preserve">delete sync reference form service cote front puis back </t>
   </si>
   <si>
@@ -148,13 +145,13 @@
     <t>encypt value on save</t>
   </si>
   <si>
-    <t>deploy front zeby dzialal Myappmemo</t>
-  </si>
-  <si>
     <t>//return CreatedAtAction(nameof(GetTaskById), new { id = newTask.Id }, newTask);</t>
   </si>
   <si>
     <t>1st</t>
+  </si>
+  <si>
+    <t>step by step:</t>
   </si>
 </sst>
 </file>
@@ -567,7 +564,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -653,7 +650,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -714,30 +711,25 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -759,27 +751,27 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PRO\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C3ECE7-B795-49D6-ACF7-61B38B399B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF97CA4-F3D3-4693-B5BF-36122DF46100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +730,11 @@
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF97CA4-F3D3-4693-B5BF-36122DF46100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AAAA13-5AF4-4795-BB9B-EF24320E3E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>step by step:</t>
+  </si>
+  <si>
+    <t>21.02.2023</t>
   </si>
 </sst>
 </file>
@@ -561,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,9 +575,9 @@
     <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -582,8 +585,11 @@
       <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -602,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -613,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -621,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
@@ -635,7 +641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -643,14 +649,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -661,8 +667,11 @@
       <c r="I9" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -670,15 +679,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -686,18 +692,18 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -707,6 +713,9 @@
       </c>
       <c r="I15" s="1">
         <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AAAA13-5AF4-4795-BB9B-EF24320E3E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C623D5DA-2B3A-4818-A6ED-7DB3A4F5C608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{36730BDF-60A8-4174-8B0B-D8E0593B298C}">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{36730BDF-60A8-4174-8B0B-D8E0593B298C}">
       <text>
         <r>
           <rPr>
@@ -70,15 +70,9 @@
     <t>netoyage fichiers Projects</t>
   </si>
   <si>
-    <t>add 1 question az-400</t>
-  </si>
-  <si>
     <t>netoyage images</t>
   </si>
   <si>
-    <t>add one new info techno : retenu de mon experience</t>
-  </si>
-  <si>
     <t>abdos</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t xml:space="preserve">focus on :  </t>
   </si>
   <si>
-    <t xml:space="preserve">delete sync reference form service cote front puis back </t>
-  </si>
-  <si>
     <t>19.02.2023</t>
   </si>
   <si>
@@ -142,19 +133,28 @@
     <t xml:space="preserve">three shaking , czy powinno to byc zrobione manualnie ? </t>
   </si>
   <si>
-    <t>encypt value on save</t>
-  </si>
-  <si>
-    <t>//return CreatedAtAction(nameof(GetTaskById), new { id = newTask.Id }, newTask);</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>step by step:</t>
-  </si>
-  <si>
     <t>21.02.2023</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>add 50 question az-400</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>correction MyAppMemo</t>
+  </si>
+  <si>
+    <t>techno : retenu de mon experience</t>
   </si>
 </sst>
 </file>
@@ -275,13 +275,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -564,186 +563,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="9" max="9" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
       <c r="I7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>4</v>
       </c>
-      <c r="H9">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="4">
-        <v>12</v>
-      </c>
-      <c r="J9">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="J16" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -761,31 +746,31 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C623D5DA-2B3A-4818-A6ED-7DB3A4F5C608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E117D5-24C6-4830-ADE0-8A925076B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
-    <sheet name="pytania do kolegow" sheetId="2" r:id="rId2"/>
+    <sheet name="cel" sheetId="3" r:id="rId2"/>
+    <sheet name="pytania do kolegow" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>netoyage fichiers Projects</t>
   </si>
@@ -139,9 +140,6 @@
     <t>*****</t>
   </si>
   <si>
-    <t>****</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
@@ -155,6 +153,36 @@
   </si>
   <si>
     <t>techno : retenu de mon experience</t>
+  </si>
+  <si>
+    <t>zrozumiec versioning</t>
+  </si>
+  <si>
+    <t>zrozumiec autehntification</t>
+  </si>
+  <si>
+    <t>zrozuemic encryption</t>
+  </si>
+  <si>
+    <t>uplod image</t>
+  </si>
+  <si>
+    <t>uplod file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngrx load project </t>
+  </si>
+  <si>
+    <t>poczuc sie lepiej jako dev</t>
+  </si>
+  <si>
+    <t>myappmemo , slide4r</t>
+  </si>
+  <si>
+    <t>ulatwic nauke</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -566,15 +594,15 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.109375" style="4"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -588,7 +616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -596,12 +624,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -610,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -621,20 +649,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -648,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -656,14 +684,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -678,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -686,14 +717,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -705,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -714,7 +745,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -739,6 +770,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCA9CC5-6343-46E1-924C-89A402F61FB9}">
+  <dimension ref="A2:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
   <dimension ref="A2:A8"/>
   <sheetViews>
@@ -746,29 +837,29 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E117D5-24C6-4830-ADE0-8A925076B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E7205-112A-4B46-81CC-A1977483CC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
-  <si>
-    <t>netoyage fichiers Projects</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>netoyage images</t>
   </si>
@@ -77,9 +74,6 @@
     <t>abdos</t>
   </si>
   <si>
-    <t>netoyage dossiers it google drive</t>
-  </si>
-  <si>
     <t xml:space="preserve">ok </t>
   </si>
   <si>
@@ -119,15 +113,6 @@
     <t>19.02.2023</t>
   </si>
   <si>
-    <t xml:space="preserve">facture pour le examtopics 35$ possible ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mon prochain exam c'est az-400 ? </t>
-  </si>
-  <si>
-    <t>nie umoiem zastosowac patch</t>
-  </si>
-  <si>
     <t xml:space="preserve">czy powinienem separowac bundle I jak ? </t>
   </si>
   <si>
@@ -149,9 +134,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>correction MyAppMemo</t>
-  </si>
-  <si>
     <t>techno : retenu de mon experience</t>
   </si>
   <si>
@@ -183,6 +165,15 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>22.02.2023</t>
+  </si>
+  <si>
+    <t>netoyage fichiers google drive Interview</t>
+  </si>
+  <si>
+    <t>****</t>
   </si>
 </sst>
 </file>
@@ -591,113 +582,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="9" max="9" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -708,26 +697,26 @@
       <c r="J10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -736,21 +725,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -777,51 +766,51 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -831,37 +820,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A7:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E7205-112A-4B46-81CC-A1977483CC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E21F96-4D0F-4B15-91A5-5BA77A97A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>netoyage images</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>****</t>
+  </si>
+  <si>
+    <t>odpoczac</t>
   </si>
 </sst>
 </file>
@@ -294,13 +297,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -582,18 +586,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.109375" style="4"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -610,7 +614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +625,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -635,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -646,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -657,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -671,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -679,12 +686,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -701,17 +711,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -725,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -734,7 +744,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
@@ -749,6 +759,11 @@
       </c>
       <c r="J16" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -766,49 +781,49 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -826,14 +841,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E21F96-4D0F-4B15-91A5-5BA77A97A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8B28D-5D10-498A-8D23-F2D294C0F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>netoyage images</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>odpoczac</t>
+  </si>
+  <si>
+    <t>24.02.2023</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -586,20 +592,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="9" max="9" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -613,21 +619,24 @@
       <c r="K1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -641,8 +650,11 @@
       <c r="I3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -653,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -664,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -678,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -686,15 +698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -710,18 +719,21 @@
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -735,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -744,7 +756,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
@@ -761,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
@@ -781,49 +793,49 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -841,14 +853,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8B28D-5D10-498A-8D23-F2D294C0F0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EBF2F-9ACE-43BB-8074-2A09F70F3EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>netoyage images</t>
   </si>
@@ -176,13 +176,16 @@
     <t>****</t>
   </si>
   <si>
-    <t>odpoczac</t>
-  </si>
-  <si>
     <t>24.02.2023</t>
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>1.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pecs, I na laweczce rozciagniczki </t>
   </si>
 </sst>
 </file>
@@ -303,14 +306,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -592,20 +594,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.109375" style="4"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -622,8 +624,11 @@
       <c r="L1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>34</v>
       </c>
@@ -634,9 +639,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -653,8 +658,11 @@
       <c r="L3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -665,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -676,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -690,7 +698,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -698,12 +709,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -723,17 +737,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -747,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -756,7 +770,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
@@ -771,11 +785,6 @@
       </c>
       <c r="J16" s="1">
         <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -793,49 +802,49 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -853,14 +862,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86EBF2F-9ACE-43BB-8074-2A09F70F3EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54980ECE-7ACC-4973-B6D8-B347D8359D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>netoyage images</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">pecs, I na laweczce rozciagniczki </t>
+  </si>
+  <si>
+    <t>02.03.2023</t>
   </si>
 </sst>
 </file>
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,9 +608,9 @@
     <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -627,8 +630,11 @@
       <c r="M1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>34</v>
       </c>
@@ -639,10 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -661,8 +664,11 @@
       <c r="M3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -673,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -684,7 +690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -698,23 +704,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -736,18 +742,21 @@
       <c r="L10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -761,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -770,7 +779,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54980ECE-7ACC-4973-B6D8-B347D8359D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F589226-93CA-4D88-801D-14A229720FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>netoyage images</t>
   </si>
@@ -128,9 +128,6 @@
     <t>***</t>
   </si>
   <si>
-    <t>add 50 question az-400</t>
-  </si>
-  <si>
     <t>**</t>
   </si>
   <si>
@@ -189,6 +186,15 @@
   </si>
   <si>
     <t>02.03.2023</t>
+  </si>
+  <si>
+    <t>az-400</t>
+  </si>
+  <si>
+    <t>publish azure</t>
+  </si>
+  <si>
+    <t>kupiony skaner</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -625,18 +631,18 @@
         <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -647,10 +653,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -662,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
         <v>2</v>
@@ -680,11 +686,14 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
@@ -712,10 +721,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -758,7 +770,7 @@
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -815,47 +827,47 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F589226-93CA-4D88-801D-14A229720FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1187B24E-08CB-49BE-89D3-3C55762D837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
     <sheet name="cel" sheetId="3" r:id="rId2"/>
-    <sheet name="pytania do kolegow" sheetId="2" r:id="rId3"/>
+    <sheet name="secret wish" sheetId="4" r:id="rId3"/>
+    <sheet name="pytania do kolegow" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>netoyage images</t>
   </si>
@@ -195,6 +196,9 @@
   </si>
   <si>
     <t>kupiony skaner</t>
+  </si>
+  <si>
+    <t>chce zrobic obraz wart 5kafli, zeby pojechac do Afryki</t>
   </si>
 </sst>
 </file>
@@ -606,7 +610,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,6 +880,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E480C839-7F72-4CE7-B336-DC49724C2352}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
   <dimension ref="A7:A8"/>
   <sheetViews>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1187B24E-08CB-49BE-89D3-3C55762D837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6CD42-9838-4E66-8EB4-D3AD7688EC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://www.examtopics.com/exams/microsoft/az-400/view/</t>
+          <t xml:space="preserve">check file prepare for making 10 per file, start doing it. </t>
         </r>
       </text>
     </comment>
@@ -610,7 +610,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6CD42-9838-4E66-8EB4-D3AD7688EC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DAD3C-A2EA-4EDD-BD17-8A3B2BF8A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -62,12 +62,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{4487B133-0F9F-41A3-8A9C-8B01917C2AA5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jak uwypulkic fakt ze jestem bardzo dobry
+- Jak odpowiadać na pytanie czy jestem bardziej front czy back
+Tak jak w metrze jak widziałem lidke2 brakuje mi extra wysiłku, zatrzymuje się w pewnym momencie i zaczynam inny temat bez dogłębnego zbadania, i koniec końców nie rozumiem tematu.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>netoyage images</t>
   </si>
@@ -81,12 +96,6 @@
     <t>parler d'experience</t>
   </si>
   <si>
-    <t>parler de moi</t>
-  </si>
-  <si>
-    <t>parler de technos</t>
-  </si>
-  <si>
     <t>muscu analiza</t>
   </si>
   <si>
@@ -199,13 +208,22 @@
   </si>
   <si>
     <t>chce zrobic obraz wart 5kafli, zeby pojechac do Afryki</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>read myself</t>
+  </si>
+  <si>
+    <t>se presenter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +251,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -319,13 +351,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -610,7 +644,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,33 +654,33 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
         <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -657,10 +691,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -672,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
         <v>2</v>
@@ -691,24 +725,24 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -719,21 +753,21 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -767,14 +801,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -788,19 +827,19 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -831,47 +870,47 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -911,12 +950,12 @@
   <sheetData>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DAD3C-A2EA-4EDD-BD17-8A3B2BF8A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C401E41-5AA3-4734-910E-EE49335D663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>netoyage images</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>se presenter</t>
+  </si>
+  <si>
+    <t>06.03.2023</t>
+  </si>
+  <si>
+    <t>czytaj siebie, ciagle pisze a nie czytam kurwa po co ja to robie</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +291,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -351,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -359,7 +371,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -641,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,9 +667,9 @@
     <col min="9" max="9" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -677,8 +692,11 @@
       <c r="N1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>31</v>
       </c>
@@ -689,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -712,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -723,10 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -736,8 +751,11 @@
       <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -751,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -762,17 +780,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -795,23 +816,26 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -825,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -834,7 +858,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -850,6 +874,12 @@
       <c r="J16" s="1">
         <v>2</v>
       </c>
+    </row>
+    <row r="18" spans="3:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C401E41-5AA3-4734-910E-EE49335D663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E0876B-3C51-4BA2-9142-343CD6EFCB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{36730BDF-60A8-4174-8B0B-D8E0593B298C}">
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{36730BDF-60A8-4174-8B0B-D8E0593B298C}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>netoyage images</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>czytaj siebie, ciagle pisze a nie czytam kurwa po co ja to robie</t>
+  </si>
+  <si>
+    <t>07.03.2023</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -372,7 +375,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -656,230 +658,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="16" max="16" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O6" t="s">
+      <c r="V6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="O9" t="s">
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="O10">
         <v>6</v>
       </c>
-      <c r="I10" s="4">
+      <c r="P10" s="4">
         <v>12</v>
       </c>
-      <c r="J10">
+      <c r="Q10">
         <v>7</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="P18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E0876B-3C51-4BA2-9142-343CD6EFCB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3BF575-583D-477E-A1F7-44A7B84A0CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>netoyage images</t>
   </si>
@@ -226,13 +226,28 @@
   </si>
   <si>
     <t>07.03.2023</t>
+  </si>
+  <si>
+    <t>nswag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moc opowiadac o tym co j'ai retenu… </t>
+  </si>
+  <si>
+    <t>ngrx</t>
+  </si>
+  <si>
+    <t>rxjs</t>
+  </si>
+  <si>
+    <t>upload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +290,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -366,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -377,6 +401,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -661,7 +687,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +827,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -904,7 +930,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +941,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -944,6 +970,31 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
@@ -956,6 +1007,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -964,7 +1016,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,23 +1033,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
-  <dimension ref="A7:A8"/>
+  <dimension ref="A7:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3BF575-583D-477E-A1F7-44A7B84A0CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C37FFEB-31F3-48B2-87CD-D400C257C0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>netoyage images</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>8.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
   </si>
 </sst>
 </file>
@@ -687,7 +696,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +706,9 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
         <v>47</v>
       </c>
       <c r="M1" t="s">
@@ -739,11 +751,17 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
       </c>
       <c r="O3" t="s">
         <v>2</v>
@@ -801,12 +819,12 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
       <c r="P8" s="4">
         <v>1</v>
       </c>
@@ -815,6 +833,9 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -827,10 +848,13 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -873,6 +897,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -887,6 +914,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
@@ -896,6 +926,9 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
@@ -912,7 +945,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>0</v>
+      </c>
       <c r="C18" s="8" t="s">
         <v>46</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C37FFEB-31F3-48B2-87CD-D400C257C0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB2909A-6A3C-4F24-8977-08AA1D9F4822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-10140" yWindow="4590" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>netoyage images</t>
   </si>
@@ -165,9 +165,6 @@
     <t>poczuc sie lepiej jako dev</t>
   </si>
   <si>
-    <t>myappmemo , slide4r</t>
-  </si>
-  <si>
     <t>ulatwic nauke</t>
   </si>
   <si>
@@ -250,6 +247,21 @@
   </si>
   <si>
     <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>10.03.2023</t>
+  </si>
+  <si>
+    <t>ReadMe!</t>
+  </si>
+  <si>
+    <t>zrobione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en cours </t>
+  </si>
+  <si>
+    <t>myappmemo , slider</t>
   </si>
 </sst>
 </file>
@@ -399,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -412,12 +424,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -693,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,13 +741,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
@@ -727,21 +765,21 @@
         <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
         <v>2</v>
@@ -752,16 +790,19 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>2</v>
@@ -773,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
         <v>2</v>
@@ -792,7 +833,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -801,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -829,30 +870,30 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10">
         <v>2</v>
       </c>
@@ -888,7 +929,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -897,15 +938,15 @@
       </c>
     </row>
     <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
       <c r="P14" s="1">
         <v>1</v>
       </c>
@@ -914,26 +955,26 @@
       </c>
     </row>
     <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
       </c>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -945,14 +986,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="8">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -963,85 +1009,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCA9CC5-6343-46E1-924C-89A402F61FB9}">
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="zrobione">
+      <formula>NOT(ISERROR(SEARCH("zrobione",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="en cours">
+      <formula>NOT(ISERROR(SEARCH("en cours",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1059,7 +1122,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB2909A-6A3C-4F24-8977-08AA1D9F4822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244F93D-1F32-4FB4-9E50-1A38A3A6AA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-10140" yWindow="4590" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>netoyage images</t>
   </si>
@@ -123,12 +123,6 @@
     <t>19.02.2023</t>
   </si>
   <si>
-    <t xml:space="preserve">czy powinienem separowac bundle I jak ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">three shaking , czy powinno to byc zrobione manualnie ? </t>
-  </si>
-  <si>
     <t>21.02.2023</t>
   </si>
   <si>
@@ -255,13 +249,31 @@
     <t>ReadMe!</t>
   </si>
   <si>
-    <t>zrobione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en cours </t>
-  </si>
-  <si>
     <t>myappmemo , slider</t>
+  </si>
+  <si>
+    <t>test Angular</t>
+  </si>
+  <si>
+    <t>chce miec ten rysunek</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT </t>
+  </si>
+  <si>
+    <t>muscu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poczuc sie lepiej jako ktos kto poswieca na to co 3 dzien </t>
+  </si>
+  <si>
+    <t>plan, przynajmniej zdjecia cwiczen zaplanowac na kazdy kolejny seans</t>
+  </si>
+  <si>
+    <t>cele w cwiczeniach jakie juz robie</t>
   </si>
 </sst>
 </file>
@@ -411,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -424,13 +436,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -442,13 +453,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -730,27 +734,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="9.140625" style="4"/>
+    <col min="16" max="16" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
         <v>8</v>
@@ -762,24 +766,24 @@
         <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
         <v>2</v>
@@ -788,21 +792,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
         <v>2</v>
@@ -814,13 +818,13 @@
         <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -831,21 +835,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -859,7 +863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -870,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -881,13 +885,13 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -922,24 +926,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -954,24 +958,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
       </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -986,18 +990,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18" s="8">
         <v>0</v>
       </c>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
-        <v>56</v>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1009,102 +1013,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCA9CC5-6343-46E1-924C-89A402F61FB9}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>59</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="zrobione">
-      <formula>NOT(ISERROR(SEARCH("zrobione",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="en cours">
-      <formula>NOT(ISERROR(SEARCH("en cours",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1112,17 +1144,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E480C839-7F72-4CE7-B336-DC49724C2352}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1132,25 +1169,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF828D99-C1B5-48A5-A635-EE6041FDD1A9}">
-  <dimension ref="A7:C13"/>
+  <dimension ref="C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" s="11"/>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244F93D-1F32-4FB4-9E50-1A38A3A6AA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4331AF01-146F-4377-8791-1436948FCBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>netoyage images</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>cele w cwiczeniach jakie juz robie</t>
+  </si>
+  <si>
+    <t>Oauth 2</t>
+  </si>
+  <si>
+    <t>az400</t>
   </si>
 </sst>
 </file>
@@ -441,22 +447,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -732,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
@@ -999,9 +990,33 @@
       </c>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74D53FD-8F7A-4DC7-81B0-23DB8FDE1407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0088DFCE-B43D-4F39-924D-3D497AE854B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>abdos</t>
   </si>
@@ -495,7 +495,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +617,9 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>12</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT work\linkedin-skill-assessments-quizzes\(development)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0088DFCE-B43D-4F39-924D-3D497AE854B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7879FD81-37E2-4835-857C-D6AE98823858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>abdos</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>parler like a pro</t>
+  </si>
+  <si>
+    <t>interesuj sie czymc</t>
   </si>
 </sst>
 </file>
@@ -492,18 +495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="18" max="18" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>17.03</v>
       </c>
@@ -550,14 +553,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>21</v>
       </c>
@@ -568,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -606,40 +609,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C9">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C10">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
     </row>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7879FD81-37E2-4835-857C-D6AE98823858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502B7D6B-E23A-4FA3-AC85-B32A685708F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29895" yWindow="3630" windowWidth="17310" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>abdos</t>
   </si>
@@ -136,6 +147,9 @@
   </si>
   <si>
     <t>interesuj sie czymc</t>
+  </si>
+  <si>
+    <t>- przygotuj to w formie tekstu</t>
   </si>
 </sst>
 </file>
@@ -208,12 +222,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="category" xfId="1" xr:uid="{785D7D2A-23D4-450F-AE10-79990BC743B3}"/>
@@ -498,7 +513,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,6 +579,9 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="Q3" t="s">
         <v>1</v>
       </c>

--- a/(development)/all days checklist - focus.xlsx
+++ b/(development)/all days checklist - focus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502B7D6B-E23A-4FA3-AC85-B32A685708F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354D9C46-3B77-4706-9220-5CABCF433407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="3630" windowWidth="17310" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>abdos</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>- przygotuj to w formie tekstu</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,13 +526,16 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>17.03</v>
+        <v>2803.163</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K1">
+        <v>17.03</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
@@ -590,12 +596,12 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="M4">
         <v>0</v>
       </c>
@@ -628,7 +634,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="K5">
         <v>1</v>
       </c>
     </row>
@@ -644,13 +650,16 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
